--- a/medicine/Premiers secours et secourisme/Évacuation_sanitaire/Évacuation_sanitaire.xlsx
+++ b/medicine/Premiers secours et secourisme/Évacuation_sanitaire/Évacuation_sanitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89vacuation_sanitaire</t>
+          <t>Évacuation_sanitaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une évacuation sanitaire ou médicale, abrégé en evasan ou medevac, est l'extraction par une unité aérienne (hélicoptère, avion), terrestre (ambulance) ou navale d'une personne souffrant d'un problème de santé.
 Le terme est essentiellement utilisé dans le cadre militaire. Mais on utilise aussi le terme dans le civil, dès que l'évacuation dépasse les « distance raisonnables » des pays industrialisés. Le terme evasan est notamment utilisé pour l'évacuation d'un touriste victime d'un accident ou d'une maladie, dans un pays où les conditions de prise en charge ne sont pas optimales, vers son pays d'origine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89vacuation_sanitaire</t>
+          <t>Évacuation_sanitaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Medevac, casevac</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme medevac est l'abréviation du terme anglais medical evacuation ; ce terme est la traduction anglaise d'evasan. Les anglophones distinguent les notions de medevac et de casevac, abréviation de casualty evacuation (évacuation de victime) : une casevac est une évacuation effectuée avec un moyen non-médicalisé. Dans le cadre d'une zone de combat, les Conventions de Genève imposent que les moyens sanitaires (ambulances) soient identifiés par une Croix-rouge ou équivalent (croissant-rouge, cristal-rouge) et ne soient pas armés, et interdisent de les prendre pour cible, ce qui est le cadre d'une medevac ; à l'inverse, une casevac se fait avec n'importe quel véhicule, celui-ci ne possède pas de marquage et peut être armé, il peut donc être potentiellement pris pour cible.
 Le terme medevac est parfois utilisé pour désigner l'unité médicale chargée de l'évacuation, voire le véhicule ; c'est dans ce sens qu'il est utilisé en français. Il peut s'agir d'une unité aérienne (hélicoptère, avion), terrestre (ambulance) ou navale (navire-hôpital) dont l'objectif est d'évacuer les personnes blessées au champ de bataille ou lors d'un accident.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89vacuation_sanitaire</t>
+          <t>Évacuation_sanitaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Types d'évacuations et leurs modes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On distingue les evasan opérationnelles selon la distance à parcourir :
 evasan tactique : l'évacuation se fait sur le théâtre des opérations, par exemple évacuation vers un hôpital de campagne ;
@@ -563,7 +579,7 @@
 par voie navigable (bateau) ;
 par hélicoptère.
 À l'hôpital de campagne, il reçoit les soins chirurgicaux minimaux : sécurisation des voies aériennes (notamment drainage des plèvres), arrêt des grandes hémorragies, parage des plaies (nettoyage, enlèvement des tissus nécrosés), alignement des fractures et mesures générales de réanimation. Si la gravité l'impose, il doit ensuite être évacué vers une structure en dur ; cette structure est nécessairement loin du front pour être sure, l’évacuation est donc nécessairement aérienne pour des raisons de rapidité et de confort. Soit il existe une structure « amie » proche et de technicité suffisante, il s'agit alors d'une evasan tactique secondaire ; soit le blessé est évacué vers son pays d'origine, il s'agit alors d'une evasan stratégique.
-Une evasan stratégique se fait en général en trois norias[1] :
+Une evasan stratégique se fait en général en trois norias :
 boucle amont : transport entre l'hôpital de campagne et l'aéroport d'embarquement (evasan tactique) ;
 grande boucle : vol vers le pays d'accueil ;
 boucle aval : transport entre l'aéroport de débarquement et l'établissement hospitalier (en général un hôpital militaire).</t>
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89vacuation_sanitaire</t>
+          <t>Évacuation_sanitaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Régulation médicale d'une evasan</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Une evasan présente de nombreuses contraintes :
 état du patient bien évidemment ;
@@ -622,7 +640,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89vacuation_sanitaire</t>
+          <t>Évacuation_sanitaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,7 +658,9 @@
           <t>Évacuation sanitaire aérienne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une évacuation sanitaire aérienne est l'extraction par avion ou hélicoptère d'une personne ayant été accidentée, blessée ou souffrant d'un problème de santé.
 Dans l'armée française, les termes Evasan et Rapasan ont longtemps été utilisés pour différencier le degré d'urgence.
@@ -659,7 +679,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89vacuation_sanitaire</t>
+          <t>Évacuation_sanitaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,12 +699,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-Le service de santé des armées (SSA) a mis en place un dispositif santé de veille opérationnelle (DSVO)[1]. La régulation evasan est réalisée sous commandement du médecin régulateur (MR) et de l'infirmier convoyeur de l'armée de l'air, à l'état-major opérationnel santé à Balard, Paris.
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le service de santé des armées (SSA) a mis en place un dispositif santé de veille opérationnelle (DSVO). La régulation evasan est réalisée sous commandement du médecin régulateur (MR) et de l'infirmier convoyeur de l'armée de l'air, à l'état-major opérationnel santé à Balard, Paris.
 L'autorité médicale du théâtre d'opérations extérieures est le chef de santé, ou ComSanté. Le décideur aéronautique est le Cabinet du ministre de la Défense, État-major des armées.
-Les evasans stratégiques se font en 2007 avec les moyens suivants[2] :
+Les evasans stratégiques se font en 2007 avec les moyens suivants :
 pour les evasans individuelles, avec des Falcon 900 (un blessé) ou  Falcon 2000 (deux blessés) de l'Escadron de transport 60, médicalisables en deux heures ;
-pour les evasans collectives, avec des Airbus A340 (25 blessés) médicalisable en 6 à 12 h, des Airbus A310 (18 blessés), des Hercules C-130, des Transall C-160 (30 blessés), ou avec des avions Morphée[3],[4] (« Module de réanimation pour patients à haute élongation d’évacuation, », des Boeing C-135, 6 à 12 blessés).
+pour les evasans collectives, avec des Airbus A340 (25 blessés) médicalisable en 6 à 12 h, des Airbus A310 (18 blessés), des Hercules C-130, des Transall C-160 (30 blessés), ou avec des avions Morphée, (« Module de réanimation pour patients à haute élongation d’évacuation, », des Boeing C-135, 6 à 12 blessés).
 Les hôpitaux de destination à Paris sont les hôpitaux d'instruction des armées (HIA). Pour une evasan unique, il s'agit des HIA parisiens : HIA Bégin à Saint-Mandé (Val-de-Marne), HIA Percy à Clamart (Hauts-de-Seine). En effet, les Falcon atterrissent à Villacoublay, la boucle aval est alors assurée par le réseau des ambulances médicalisées de la brigade de sapeurs pompiers de Paris (BSPP).
 Les civils utilisent le réseau des SAMU et les compagnies d'assistance pour ce qui concerne pour la régulation selon le statut du patient et les compagnies privées d'avionneurs ou publiques dont l'Armée de l'air.
 Les contrôleurs aériens français savent si un vol est une évacuation sanitaire et doivent dans la mesure du possible leur donner la priorité par rapport aux autres vols.
